--- a/Data/hotelData.xlsx
+++ b/Data/hotelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E98D96-0D70-A44C-9A74-121462654414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B8E811-EB9B-5D4C-99F3-D43DB1B387BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{7DACC483-9417-7E43-927A-573F078CA466}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="10900" xr2:uid="{7DACC483-9417-7E43-927A-573F078CA466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
